--- a/results/mp/logistic/corona/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
@@ -49,72 +49,72 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
@@ -124,16 +124,16 @@
     <t>help</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7363013698630136</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.417989417989418</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
         <v>0.9166666666666666</v>
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3391472868217054</v>
+        <v>0.3197674418604651</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,60 +678,36 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L5">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>42</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="K5">
-        <v>0.8983050847457628</v>
-      </c>
-      <c r="L5">
-        <v>53</v>
-      </c>
-      <c r="M5">
-        <v>53</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.2013422818791946</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>119</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K6">
         <v>0.8571428571428571</v>
@@ -757,16 +733,16 @@
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,21 +754,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8276762402088773</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,21 +780,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -830,21 +806,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7816901408450704</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L10">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="M10">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -856,47 +832,47 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L11">
+        <v>85</v>
+      </c>
+      <c r="M11">
+        <v>85</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>21</v>
-      </c>
-      <c r="K11">
-        <v>0.78125</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-      <c r="M11">
-        <v>100</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -908,21 +884,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,21 +910,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.7708333333333334</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -960,21 +936,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.7625</v>
+        <v>0.775</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -986,12 +962,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
         <v>0.75</v>
@@ -1017,16 +993,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1038,21 +1014,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1069,16 +1045,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6744186046511628</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1090,21 +1066,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.66</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1116,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6507936507936508</v>
+        <v>0.65</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1142,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5941176470588235</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L22">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M22">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1168,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5899581589958159</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5531914893617021</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5389830508474577</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L25">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="M25">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1246,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>136</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.4857142857142857</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,85 +1248,111 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4769230769230769</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L27">
+        <v>34</v>
+      </c>
+      <c r="M27">
+        <v>34</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>31</v>
-      </c>
-      <c r="M27">
-        <v>31</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4044943820224719</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L28">
+        <v>34</v>
+      </c>
+      <c r="M28">
+        <v>34</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>36</v>
-      </c>
-      <c r="M28">
-        <v>36</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29">
+        <v>0.4044943820224719</v>
+      </c>
+      <c r="L29">
+        <v>36</v>
+      </c>
+      <c r="M29">
+        <v>36</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L29">
+      <c r="K30">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L30">
         <v>26</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>26</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>52</v>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
